--- a/MIlestones and Activities.xlsx
+++ b/MIlestones and Activities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07ff64f529ded663/Rutgers_Bootcamp/Project_1_DD-BM-PS-RP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="8_{D50C42C5-2553-48F6-9D7F-2330CB4A257B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{9E56995F-EB83-44F8-B4E7-BB3883A3F4CC}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="8_{D50C42C5-2553-48F6-9D7F-2330CB4A257B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{8F701309-D62A-4C3B-B134-0E758E660384}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7031EDC3-0A6D-4602-B0DE-EFC30D2F87C6}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="32">
   <si>
     <t>Research</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>Data Wrangling</t>
-  </si>
-  <si>
-    <t>transform and merge datasets</t>
   </si>
   <si>
     <t>Charts &amp; Maps</t>
@@ -61,13 +58,7 @@
     <t>review the code and confirm all questions are answered.</t>
   </si>
   <si>
-    <t>Create and plot all proposed charts and maps</t>
-  </si>
-  <si>
     <t>Prepare the PPT and test the 10min presentatation before class</t>
-  </si>
-  <si>
-    <t>if needed</t>
   </si>
   <si>
     <t>XX</t>
@@ -132,6 +123,12 @@
   <si>
     <t>find datasets and APIs to use in the Proj
 verify if datasets have the outputs we require</t>
+  </si>
+  <si>
+    <t>merge data, cleanup and transform datasets</t>
+  </si>
+  <si>
+    <t>Plot all proposed charts and maps</t>
   </si>
 </sst>
 </file>
@@ -139,9 +136,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="mmm\-dd"/>
+    <numFmt numFmtId="164" formatCode="mmm\-dd"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,8 +152,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -214,6 +218,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDCB9FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,10 +326,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -355,27 +365,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -385,15 +380,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -409,12 +395,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -423,9 +403,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -436,7 +413,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -448,13 +425,46 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -779,26 +789,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21E2E831-403B-4AD2-85D9-68B07A40B986}">
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="R4" sqref="R4"/>
+      <selection pane="bottomRight" sqref="A1:P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" style="2" customWidth="1"/>
     <col min="3" max="3" width="41.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" style="1" customWidth="1"/>
-    <col min="5" max="18" width="9.140625" style="2"/>
+    <col min="5" max="14" width="7.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="6.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.140625" style="2"/>
     <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1</v>
@@ -807,7 +819,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E1" s="6">
         <v>43729</v>
@@ -815,13 +827,13 @@
       <c r="F1" s="6">
         <v>43730</v>
       </c>
-      <c r="G1" s="6">
+      <c r="G1" s="51">
         <v>43731</v>
       </c>
       <c r="H1" s="6">
         <v>43732</v>
       </c>
-      <c r="I1" s="6">
+      <c r="I1" s="51">
         <v>43733</v>
       </c>
       <c r="J1" s="6">
@@ -830,19 +842,19 @@
       <c r="K1" s="6">
         <v>43735</v>
       </c>
-      <c r="L1" s="6">
+      <c r="L1" s="51">
         <v>43736</v>
       </c>
       <c r="M1" s="6">
         <v>43737</v>
       </c>
-      <c r="N1" s="6">
+      <c r="N1" s="51">
         <v>43738</v>
       </c>
       <c r="O1" s="6">
         <v>43739</v>
       </c>
-      <c r="P1" s="6">
+      <c r="P1" s="51">
         <v>43740</v>
       </c>
     </row>
@@ -854,15 +866,15 @@
         <v>0</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="3"/>
+      <c r="H2" s="4"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -880,20 +892,18 @@
         <v>3</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
-      <c r="J3" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="3"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -905,23 +915,23 @@
         <v>43736</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="3"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
@@ -931,13 +941,13 @@
         <v>43738</v>
       </c>
       <c r="B5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>8</v>
-      </c>
       <c r="D5" s="11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -947,9 +957,9 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
       <c r="P5" s="3"/>
     </row>
     <row r="6" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -957,13 +967,13 @@
         <v>43740</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -975,18 +985,18 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="6">
@@ -1034,16 +1044,16 @@
         <v>0</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
+        <v>10</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="49"/>
+      <c r="G9" s="50"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
@@ -1062,16 +1072,16 @@
         <v>0</v>
       </c>
       <c r="C10" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="50"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
@@ -1090,16 +1100,16 @@
         <v>0</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="20"/>
+        <v>10</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="49"/>
+      <c r="G11" s="50"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
@@ -1118,16 +1128,16 @@
         <v>0</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="20"/>
+        <v>11</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="49"/>
+      <c r="G12" s="50"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
@@ -1139,26 +1149,26 @@
       <c r="P12" s="14"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="21">
+      <c r="A13" s="18">
         <v>2.1</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="22" t="s">
-        <v>17</v>
+      <c r="C13" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
-      <c r="H13" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="24"/>
-      <c r="J13" s="40"/>
+      <c r="H13" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="44"/>
+      <c r="J13" s="30"/>
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
       <c r="M13" s="14"/>
@@ -1167,26 +1177,26 @@
       <c r="P13" s="14"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="21">
+      <c r="A14" s="18">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="22" t="s">
-        <v>17</v>
+      <c r="C14" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
-      <c r="H14" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" s="24"/>
-      <c r="J14" s="40"/>
+      <c r="H14" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="44"/>
+      <c r="J14" s="30"/>
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
       <c r="M14" s="14"/>
@@ -1195,26 +1205,26 @@
       <c r="P14" s="14"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="21">
+      <c r="A15" s="18">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="22" t="s">
-        <v>17</v>
+      <c r="C15" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
-      <c r="H15" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="24"/>
-      <c r="J15" s="40"/>
+      <c r="H15" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="44"/>
+      <c r="J15" s="30"/>
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
       <c r="M15" s="14"/>
@@ -1223,26 +1233,26 @@
       <c r="P15" s="14"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="21">
+      <c r="A16" s="18">
         <v>2.4</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="22" t="s">
-        <v>17</v>
+      <c r="C16" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
-      <c r="H16" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="I16" s="24"/>
-      <c r="J16" s="40"/>
+      <c r="H16" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="44"/>
+      <c r="J16" s="30"/>
       <c r="K16" s="14"/>
       <c r="L16" s="14"/>
       <c r="M16" s="14"/>
@@ -1251,129 +1261,129 @@
       <c r="P16" s="14"/>
     </row>
     <row r="17" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="25">
+      <c r="A17" s="20">
         <v>3.1</v>
       </c>
-      <c r="B17" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="43" t="s">
-        <v>31</v>
+      <c r="B17" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>28</v>
       </c>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
-      <c r="J17" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="K17" s="29"/>
-      <c r="L17" s="30"/>
+      <c r="J17" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17" s="46"/>
+      <c r="L17" s="47"/>
       <c r="M17" s="14"/>
       <c r="N17" s="14"/>
       <c r="O17" s="14"/>
       <c r="P17" s="14"/>
     </row>
     <row r="18" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="25">
+      <c r="A18" s="20">
         <v>3.2</v>
       </c>
-      <c r="B18" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="43" t="s">
-        <v>31</v>
+      <c r="B18" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>28</v>
       </c>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
-      <c r="J18" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="K18" s="29"/>
-      <c r="L18" s="30"/>
+      <c r="J18" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18" s="46"/>
+      <c r="L18" s="47"/>
       <c r="M18" s="14"/>
       <c r="N18" s="14"/>
       <c r="O18" s="14"/>
       <c r="P18" s="14"/>
     </row>
     <row r="19" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="25">
+      <c r="A19" s="20">
         <v>3.3</v>
       </c>
-      <c r="B19" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="43" t="s">
-        <v>31</v>
+      <c r="B19" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>28</v>
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
-      <c r="J19" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="K19" s="29"/>
-      <c r="L19" s="30"/>
+      <c r="J19" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="K19" s="46"/>
+      <c r="L19" s="47"/>
       <c r="M19" s="14"/>
       <c r="N19" s="14"/>
       <c r="O19" s="14"/>
       <c r="P19" s="14"/>
     </row>
     <row r="20" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="25">
+      <c r="A20" s="20">
         <v>3.4</v>
       </c>
-      <c r="B20" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="43" t="s">
-        <v>31</v>
+      <c r="B20" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>28</v>
       </c>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
-      <c r="J20" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="K20" s="29"/>
-      <c r="L20" s="30"/>
+      <c r="J20" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20" s="46"/>
+      <c r="L20" s="47"/>
       <c r="M20" s="14"/>
       <c r="N20" s="14"/>
       <c r="O20" s="14"/>
       <c r="P20" s="14"/>
     </row>
     <row r="21" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="32">
+      <c r="A21" s="24">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B21" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="44" t="s">
-        <v>31</v>
+      <c r="B21" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>28</v>
       </c>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
@@ -1383,25 +1393,25 @@
       <c r="J21" s="14"/>
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
-      <c r="M21" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="N21" s="37"/>
+      <c r="M21" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="N21" s="40"/>
       <c r="O21" s="14"/>
       <c r="P21" s="14"/>
     </row>
     <row r="22" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="32">
+      <c r="A22" s="24">
         <v>4.2</v>
       </c>
-      <c r="B22" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="44" t="s">
-        <v>31</v>
+      <c r="B22" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>28</v>
       </c>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
@@ -1411,25 +1421,25 @@
       <c r="J22" s="14"/>
       <c r="K22" s="14"/>
       <c r="L22" s="14"/>
-      <c r="M22" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N22" s="37"/>
+      <c r="M22" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="N22" s="40"/>
       <c r="O22" s="14"/>
       <c r="P22" s="14"/>
     </row>
     <row r="23" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="32">
+      <c r="A23" s="24">
         <v>4.2</v>
       </c>
-      <c r="B23" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="44" t="s">
-        <v>31</v>
+      <c r="B23" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>28</v>
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
@@ -1439,25 +1449,25 @@
       <c r="J23" s="14"/>
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
-      <c r="M23" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="N23" s="37"/>
+      <c r="M23" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="N23" s="40"/>
       <c r="O23" s="14"/>
       <c r="P23" s="14"/>
     </row>
     <row r="24" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="32">
+      <c r="A24" s="24">
         <v>4.2</v>
       </c>
-      <c r="B24" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="44" t="s">
-        <v>31</v>
+      <c r="B24" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>28</v>
       </c>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
@@ -1467,53 +1477,43 @@
       <c r="J24" s="14"/>
       <c r="K24" s="14"/>
       <c r="L24" s="14"/>
-      <c r="M24" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="N24" s="37"/>
+      <c r="M24" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="N24" s="40"/>
       <c r="O24" s="14"/>
       <c r="P24" s="14"/>
     </row>
     <row r="25" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="45">
+      <c r="A25" s="34">
         <v>43740</v>
       </c>
-      <c r="B25" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="38"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="39"/>
-      <c r="O25" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="P25" s="50"/>
+      <c r="B25" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="28"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="P25" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="J19:L19"/>
     <mergeCell ref="J20:L20"/>
     <mergeCell ref="E9:G9"/>
     <mergeCell ref="E10:G10"/>
@@ -1521,6 +1521,16 @@
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O25:P25"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6 D9:D25" xr:uid="{F88C60AA-5A87-4D7B-A694-B1BA63105884}">
